--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_300.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_300.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,88 +488,90 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_151</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['Bb', 'F', 'Bb'], ['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(120.4, 127.2)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(121.74, 128.48)]</t>
+          <t>[('0:00:22.564557', '0:00:26.651269'), ('0:00:23.586235', '0:00:28.578526')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:11.140000', '0:02:13.900000'), ('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(41.38, 43.34)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:01:21.100000', '0:01:27.580000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
@@ -573,538 +580,554 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.05499181669394435</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3642857142857143</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(17.34, 24.4)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.08760545100584036</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:maj', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min', 'E', 'E/2']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(6.82, 8.76)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(59.162887, 65.559465)]</t>
+          <t>[('0:01:03.100000', '0:01:04.500000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+          <t>[('0:00:19.780000', '0:00:23.120000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1169415292353823</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(7.935986, 12.498707)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(33.431496, 38.307687)]</t>
+          <t>[('0:00:44.820000', '0:01:00.840000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+          <t>[('0:00:09.480000', '0:00:33.680000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(121.74, 123.78)]</t>
+          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(66.92, 84.54)]</t>
+          <t>[('0:00:12.740000', '0:00:26.980000'), ('0:00:53.460000', '0:01:02.740000'), ('0:00:00.380000', '0:00:06.260000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:34.940000', '0:00:36.860000'), ('0:00:34.660000', '0:00:36.260000'), ('0:00:08.260000', '0:00:12.960000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1485507246376812</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7)]</t>
+          <t>[['D/5', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:00:42.900000', '0:00:45.160000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:02:04.702789', '0:02:10.612267')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:53.820000', '0:01:02.520000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76), (35.6, 37.24), (8.46, 13.46)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (55.72, 64.64), (0.82, 6.76)]</t>
+          <t>[('0:01:21.100000', '0:01:27.580000'), ('0:00:13.480000', '0:00:20.960000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:09.260000', '0:00:13.900000'), ('0:00:01.180000', '0:00:06.140000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[('0:00:04.340000', '0:00:17.660000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:03.880000', '0:01:14.940000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:40.490000', '0:00:47.860000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(31.34, 33.52)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(35.14, 39.9)]</t>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.580000', '0:00:38.340000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(72.52, 90.98)]</t>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66)]</t>
+          <t>[('0:02:01.740000', '0:02:08.480000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -1113,92 +1136,44 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(121.08, 122.34)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(27.963197, 36.229501)]</t>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(46.52, 48.94)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(42.94, 51.08)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
